--- a/bots/crawl_ch/output/electronics_2022-08-13.xlsx
+++ b/bots/crawl_ch/output/electronics_2022-08-13.xlsx
@@ -579,7 +579,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:43</t>
+          <t>2022-08-13 20:58:55</t>
         </is>
       </c>
     </row>
@@ -652,7 +652,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:43</t>
+          <t>2022-08-13 20:58:55</t>
         </is>
       </c>
     </row>
@@ -723,7 +723,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:43</t>
+          <t>2022-08-13 20:58:55</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:43</t>
+          <t>2022-08-13 20:58:55</t>
         </is>
       </c>
     </row>
@@ -869,7 +869,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:43</t>
+          <t>2022-08-13 20:58:55</t>
         </is>
       </c>
     </row>
@@ -940,7 +940,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:43</t>
+          <t>2022-08-13 20:58:55</t>
         </is>
       </c>
     </row>
@@ -1013,7 +1013,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:43</t>
+          <t>2022-08-13 20:58:55</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:43</t>
+          <t>2022-08-13 20:58:55</t>
         </is>
       </c>
     </row>
@@ -1157,7 +1157,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:43</t>
+          <t>2022-08-13 20:58:55</t>
         </is>
       </c>
     </row>
@@ -1230,7 +1230,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:43</t>
+          <t>2022-08-13 20:58:55</t>
         </is>
       </c>
     </row>
@@ -1303,7 +1303,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:43</t>
+          <t>2022-08-13 20:58:55</t>
         </is>
       </c>
     </row>
@@ -1376,50 +1376,50 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:43</t>
+          <t>2022-08-13 20:58:55</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>6153846</t>
+          <t>4905485</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Duracell Knopfzelle CR2032 3V 2 Stück</t>
+          <t>Alkaline Batterie 6LP3146/9V</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-knopfzelle-cr2032-3v-2-stueck/p/6153846</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/alkaline-batterie-6lp31469v/p/4905485</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2ST</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Duracell</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>4.98/1ST</t>
+          <t>4.95/1ST</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1429,7 +1429,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>4.98</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1444,55 +1444,55 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Duracell Knopfzelle CR2032 3V 2 Stück 30% ab 2 Aktion 9.95 Schweizer Franken</t>
+          <t>Alkaline Batterie 6LP3146/9V 30% ab 2 Aktion 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:43</t>
+          <t>2022-08-13 20:58:55</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4905485</t>
+          <t>6153846</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Alkaline Batterie 6LP3146/9V</t>
+          <t>Duracell Knopfzelle CR2032 3V 2 Stück</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/alkaline-batterie-6lp31469v/p/4905485</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-knopfzelle-cr2032-3v-2-stueck/p/6153846</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>2ST</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Duracell</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>4.95/1ST</t>
+          <t>4.98/1ST</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1502,7 +1502,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>4.98</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1517,12 +1517,12 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Alkaline Batterie 6LP3146/9V 30% ab 2 Aktion 4.95 Schweizer Franken</t>
+          <t>Duracell Knopfzelle CR2032 3V 2 Stück 30% ab 2 Aktion 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:43</t>
+          <t>2022-08-13 20:58:55</t>
         </is>
       </c>
     </row>
@@ -1593,7 +1593,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:43</t>
+          <t>2022-08-13 20:58:55</t>
         </is>
       </c>
     </row>
@@ -1664,50 +1664,48 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:43</t>
+          <t>2022-08-13 20:58:55</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>3494066</t>
+          <t>6801740</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Varta Longlife Power 9V 1er Bli</t>
+          <t>Duracell Batterien Plus AA/LR6 12 Stück</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-9v-1er-bli/p/3494066</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/duracell-batterien-plus-aalr6-12-stueck/p/6801740</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1ST</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>2</v>
-      </c>
+          <t>12ST</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Duracell</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>29.85</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>8.95/1ST</t>
+          <t>2.49/1ST</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1717,7 +1715,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1727,58 +1725,60 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Varta Longlife Power 9V 1er Bli 30% ab 2 Aktion 8.95 Schweizer Franken</t>
+          <t>Duracell Batterien Plus AA/LR6 12 Stück 29.85 Schweizer Franken</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:43</t>
+          <t>2022-08-13 20:58:55</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>6761134</t>
+          <t>3494066</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS D/LR20 2 Stück</t>
+          <t>Varta Longlife Power 9V 1er Bli</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-batterien-plus-dlr20-2-stueck/p/6761134</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-9v-1er-bli/p/3494066</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2ST</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>2</v>
+      </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Duracell</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>4.98/1ST</t>
+          <t>8.95/1ST</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1788,7 +1788,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>4.98</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1803,34 +1803,34 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS D/LR20 2 Stück 30% ab 2 Aktion 9.95 Schweizer Franken</t>
+          <t>Varta Longlife Power 9V 1er Bli 30% ab 2 Aktion 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:43</t>
+          <t>2022-08-13 20:58:55</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>6801740</t>
+          <t>6761134</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Duracell Batterien Plus AA/LR6 12 Stück</t>
+          <t>Duracell Batterien PLUS D/LR20 2 Stück</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/duracell-batterien-plus-aalr6-12-stueck/p/6801740</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-batterien-plus-dlr20-2-stueck/p/6761134</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>12ST</t>
+          <t>2ST</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
@@ -1844,12 +1844,12 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>29.85</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>2.49/1ST</t>
+          <t>4.98/1ST</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1859,7 +1859,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>4.98</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1869,17 +1869,17 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Duracell Batterien Plus AA/LR6 12 Stück 29.85 Schweizer Franken</t>
+          <t>Duracell Batterien PLUS D/LR20 2 Stück 30% ab 2 Aktion 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:43</t>
+          <t>2022-08-13 20:58:55</t>
         </is>
       </c>
     </row>
@@ -1952,7 +1952,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:43</t>
+          <t>2022-08-13 20:58:55</t>
         </is>
       </c>
     </row>
@@ -2023,7 +2023,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:43</t>
+          <t>2022-08-13 20:58:55</t>
         </is>
       </c>
     </row>
@@ -2094,7 +2094,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:43</t>
+          <t>2022-08-13 20:58:55</t>
         </is>
       </c>
     </row>
@@ -2167,29 +2167,29 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:43</t>
+          <t>2022-08-13 20:58:55</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>3494234</t>
+          <t>6577801</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Varta Electronics V13GA 1er Bli</t>
+          <t>Duracell Knopfzelle CR2025 2 Stück</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-v13ga-1er-bli/p/3494234</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-knopfzelle-cr2025-2-stueck/p/6577801</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>2ST</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
@@ -2198,17 +2198,17 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Duracell</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>2.95/1ST</t>
+          <t>4.98/1ST</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2218,7 +2218,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>4.98</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2233,34 +2233,34 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Varta Electronics V13GA 1er Bli 30% ab 2 Aktion 2.95 Schweizer Franken</t>
+          <t>Duracell Knopfzelle CR2025 2 Stück 30% ab 2 Aktion 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:43</t>
+          <t>2022-08-13 20:58:55</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>6761135</t>
+          <t>6801782</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Duracell Batterie PLUS 9V/6LR61 1 Stück</t>
+          <t>Duracell Batterien Plus AAA/LR03 12 Stück</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-batterie-plus-9v6lr61-1-stueck/p/6761135</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/duracell-batterien-plus-aaalr03-12-stueck/p/6801782</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>12ST</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
@@ -2274,12 +2274,12 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>29.85</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>9.95/1ST</t>
+          <t>2.49/1ST</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -2289,7 +2289,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2299,39 +2299,39 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Duracell Batterie PLUS 9V/6LR61 1 Stück 30% ab 2 Aktion 9.95 Schweizer Franken</t>
+          <t>Duracell Batterien Plus AAA/LR03 12 Stück 29.85 Schweizer Franken</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:43</t>
+          <t>2022-08-13 20:58:55</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>6577801</t>
+          <t>3494234</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Duracell Knopfzelle CR2025 2 Stück</t>
+          <t>Varta Electronics V13GA 1er Bli</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-knopfzelle-cr2025-2-stueck/p/6577801</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-v13ga-1er-bli/p/3494234</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2ST</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -2340,17 +2340,17 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Duracell</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>4.98/1ST</t>
+          <t>2.95/1ST</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -2360,7 +2360,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>4.98</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2375,34 +2375,34 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Duracell Knopfzelle CR2025 2 Stück 30% ab 2 Aktion 9.95 Schweizer Franken</t>
+          <t>Varta Electronics V13GA 1er Bli 30% ab 2 Aktion 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:43</t>
+          <t>2022-08-13 20:58:55</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>6801782</t>
+          <t>6761135</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Duracell Batterien Plus AAA/LR03 12 Stück</t>
+          <t>Duracell Batterie PLUS 9V/6LR61 1 Stück</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/duracell-batterien-plus-aaalr03-12-stueck/p/6801782</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-batterie-plus-9v6lr61-1-stueck/p/6761135</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>12ST</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -2416,12 +2416,12 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>29.85</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>2.49/1ST</t>
+          <t>9.95/1ST</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -2431,7 +2431,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2441,17 +2441,17 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Duracell Batterien Plus AAA/LR03 12 Stück 29.85 Schweizer Franken</t>
+          <t>Duracell Batterie PLUS 9V/6LR61 1 Stück 30% ab 2 Aktion 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:43</t>
+          <t>2022-08-13 20:58:55</t>
         </is>
       </c>
     </row>
@@ -2522,7 +2522,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:43</t>
+          <t>2022-08-13 20:58:55</t>
         </is>
       </c>
     </row>
@@ -2595,7 +2595,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:43</t>
+          <t>2022-08-13 20:58:55</t>
         </is>
       </c>
     </row>
@@ -2668,7 +2668,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:43</t>
+          <t>2022-08-13 20:58:55</t>
         </is>
       </c>
     </row>
@@ -2741,7 +2741,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:43</t>
+          <t>2022-08-13 20:58:55</t>
         </is>
       </c>
     </row>
@@ -2814,7 +2814,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:43</t>
+          <t>2022-08-13 20:58:55</t>
         </is>
       </c>
     </row>
@@ -2887,7 +2887,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:43</t>
+          <t>2022-08-13 20:58:55</t>
         </is>
       </c>
     </row>
@@ -2960,7 +2960,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:43</t>
+          <t>2022-08-13 20:58:55</t>
         </is>
       </c>
     </row>
@@ -3011,7 +3011,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:43</t>
+          <t>2022-08-13 20:58:55</t>
         </is>
       </c>
     </row>
@@ -3084,7 +3084,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:43</t>
+          <t>2022-08-13 20:58:55</t>
         </is>
       </c>
     </row>
@@ -3157,7 +3157,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:43</t>
+          <t>2022-08-13 20:58:55</t>
         </is>
       </c>
     </row>
@@ -3228,7 +3228,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:43</t>
+          <t>2022-08-13 20:58:55</t>
         </is>
       </c>
     </row>
@@ -3301,7 +3301,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:43</t>
+          <t>2022-08-13 20:58:55</t>
         </is>
       </c>
     </row>
@@ -3374,34 +3374,40 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:43</t>
+          <t>2022-08-13 20:58:55</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>4145012</t>
+          <t>3494131</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>LED Teelichter warmweiss 4 Stück</t>
+          <t>Varta Longlife Power AAA 4er Bli</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/beleuchtung/taschenlampen-lichter/led-teelichter-warmweiss-4-stueck/p/4145012</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-longlife-power-aaa-4er-bli/p/3494131</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4ST</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>3</v>
+      </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -3409,57 +3415,71 @@
           <t>8.95</t>
         </is>
       </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>2.24/1ST</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'beleuchtung', 'taschenlampen-lichter']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>LED Teelichter warmweiss 4 Stück 8.95 Schweizer Franken</t>
+          <t>Varta Longlife Power AAA 4er Bli 30% ab 2 Aktion 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:43</t>
+          <t>2022-08-13 20:58:55</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>6119284</t>
+          <t>4145012</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>satrap Aqua SA10 Wasserkocher</t>
+          <t>LED Teelichter warmweiss 4 Stück</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-aqua-sa10-wasserkocher/p/6119284</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/beleuchtung/taschenlampen-lichter/led-teelichter-warmweiss-4-stueck/p/4145012</t>
         </is>
       </c>
       <c r="D43" t="inlineStr"/>
-      <c r="E43" t="n">
-        <v>3</v>
-      </c>
+      <c r="E43" t="inlineStr"/>
       <c r="F43" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>satrap</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>49.95</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -3468,34 +3488,34 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'beleuchtung', 'taschenlampen-lichter']</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>satrap Aqua SA10 Wasserkocher 49.95 Schweizer Franken</t>
+          <t>LED Teelichter warmweiss 4 Stück 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:43</t>
+          <t>2022-08-13 20:58:55</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>5763068</t>
+          <t>6119284</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>satrap Aspira Sine A700 Beutelloser Zyklonstaubsauger</t>
+          <t>satrap Aqua SA10 Wasserkocher</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-aspira-sine-a700-beutelloser-zyklonstaubsauger/p/5763068</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-aqua-sa10-wasserkocher/p/6119284</t>
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
@@ -3503,7 +3523,7 @@
         <v>3</v>
       </c>
       <c r="F44" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -3512,7 +3532,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>119.00</t>
+          <t>49.95</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -3521,41 +3541,37 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>satrap Aspira Sine A700 Beutelloser Zyklonstaubsauger 119.00 Schweizer Franken</t>
+          <t>satrap Aqua SA10 Wasserkocher 49.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:43</t>
+          <t>2022-08-13 20:58:55</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>3494131</t>
+          <t>5763068</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Varta Longlife Power AAA 4er Bli</t>
+          <t>satrap Aspira Sine A700 Beutelloser Zyklonstaubsauger</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-longlife-power-aaa-4er-bli/p/3494131</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>4ST</t>
-        </is>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-aspira-sine-a700-beutelloser-zyklonstaubsauger/p/5763068</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
       <c r="E45" t="n">
         <v>3</v>
       </c>
@@ -3564,47 +3580,31 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>satrap</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>8.95</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>2.24/1ST</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>2.24</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>119.00</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Varta Longlife Power AAA 4er Bli 30% ab 2 Aktion 8.95 Schweizer Franken</t>
+          <t>satrap Aspira Sine A700 Beutelloser Zyklonstaubsauger 119.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:43</t>
+          <t>2022-08-13 20:58:55</t>
         </is>
       </c>
     </row>
@@ -3657,7 +3657,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:43</t>
+          <t>2022-08-13 20:58:55</t>
         </is>
       </c>
     </row>
@@ -3710,7 +3710,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:43</t>
+          <t>2022-08-13 20:58:55</t>
         </is>
       </c>
     </row>
@@ -3761,7 +3761,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:43</t>
+          <t>2022-08-13 20:58:55</t>
         </is>
       </c>
     </row>
@@ -3814,7 +3814,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:43</t>
+          <t>2022-08-13 20:58:55</t>
         </is>
       </c>
     </row>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:43</t>
+          <t>2022-08-13 20:58:55</t>
         </is>
       </c>
     </row>
@@ -3936,7 +3936,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:43</t>
+          <t>2022-08-13 20:58:55</t>
         </is>
       </c>
     </row>
@@ -3987,7 +3987,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:43</t>
+          <t>2022-08-13 20:58:55</t>
         </is>
       </c>
     </row>
@@ -4038,7 +4038,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:43</t>
+          <t>2022-08-13 20:58:55</t>
         </is>
       </c>
     </row>
@@ -4109,7 +4109,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:43</t>
+          <t>2022-08-13 20:58:55</t>
         </is>
       </c>
     </row>
@@ -4162,7 +4162,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:43</t>
+          <t>2022-08-13 20:58:55</t>
         </is>
       </c>
     </row>
@@ -4213,151 +4213,151 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:43</t>
+          <t>2022-08-13 20:58:55</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>5872164</t>
+          <t>3494007</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Satrap Tischventilator Venti 2</t>
+          <t>Varta Longlife Power D 2er Bli</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-tischventilator-venti-2/p/5872164</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-d-2er-bli/p/3494007</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2ST</t>
+        </is>
+      </c>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="n">
         <v>0</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>satrap</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>34.95</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>4.48/1ST</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Satrap Tischventilator Venti 2 34.95 Schweizer Franken</t>
+          <t>Varta Longlife Power D 2er Bli 30% ab 2 Aktion 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:43</t>
+          <t>2022-08-13 20:58:55</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>3494231</t>
+          <t>5872164</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Varta Electronics CR2025 1er Bli</t>
+          <t>Satrap Tischventilator Venti 2</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-cr2025-1er-bli/p/3494231</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-tischventilator-venti-2/p/5872164</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="n">
         <v>0</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>satrap</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>4.95/1ST</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>34.95</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Varta Electronics CR2025 1er Bli 30% ab 2 Aktion 4.95 Schweizer Franken</t>
+          <t>Satrap Tischventilator Venti 2 34.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:43</t>
+          <t>2022-08-13 20:58:55</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>3494007</t>
+          <t>3494231</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Varta Longlife Power D 2er Bli</t>
+          <t>Varta Electronics CR2025 1er Bli</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-d-2er-bli/p/3494007</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-cr2025-1er-bli/p/3494231</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2ST</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
@@ -4371,12 +4371,12 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>4.48/1ST</t>
+          <t>4.95/1ST</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -4386,7 +4386,7 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -4401,12 +4401,12 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>Varta Longlife Power D 2er Bli 30% ab 2 Aktion 8.95 Schweizer Franken</t>
+          <t>Varta Electronics CR2025 1er Bli 30% ab 2 Aktion 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:43</t>
+          <t>2022-08-13 20:58:55</t>
         </is>
       </c>
     </row>
@@ -4459,7 +4459,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:43</t>
+          <t>2022-08-13 20:58:55</t>
         </is>
       </c>
     </row>
@@ -4532,7 +4532,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:43</t>
+          <t>2022-08-13 20:58:55</t>
         </is>
       </c>
     </row>
@@ -4605,7 +4605,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:43</t>
+          <t>2022-08-13 20:58:55</t>
         </is>
       </c>
     </row>
@@ -4656,24 +4656,24 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:43</t>
+          <t>2022-08-13 20:58:55</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>4358322</t>
+          <t>4096628</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Rayovac Hörgerätebatterien 13 6 Stück</t>
+          <t>Varta Longlife Power Batterien AAA/LR03 6 Stück</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/rayovac-hoergeraetebatterien-13-6-stueck/p/4358322</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-batterien-aaalr03-6-stueck/p/4096628</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -4681,25 +4681,23 @@
           <t>6ST</t>
         </is>
       </c>
-      <c r="E64" t="n">
-        <v>1</v>
-      </c>
+      <c r="E64" t="inlineStr"/>
       <c r="F64" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Rayovac</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>12.95</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>1.66/1ST</t>
+          <t>2.16/1ST</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -4709,7 +4707,7 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -4724,163 +4722,163 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>Rayovac Hörgerätebatterien 13 6 Stück 30% ab 2 Aktion 9.95 Schweizer Franken</t>
+          <t>Varta Longlife Power Batterien AAA/LR03 6 Stück 30% ab 2 Aktion 12.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:43</t>
+          <t>2022-08-13 20:58:55</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>6753975</t>
+          <t>4358322</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Severin Standgrill mit Grillplatte PG 8563</t>
+          <t>Rayovac Hörgerätebatterien 13 6 Stück</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/severin-standgrill-mit-grillplatte-pg-8563/p/6753975</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/rayovac-hoergeraetebatterien-13-6-stueck/p/4358322</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>6ST</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>1</v>
+      </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Severin</t>
+          <t>Rayovac</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>149.00</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>1.66/1ST</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>Severin Standgrill mit Grillplatte PG 8563 149.00 Schweizer Franken</t>
+          <t>Rayovac Hörgerätebatterien 13 6 Stück 30% ab 2 Aktion 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:43</t>
+          <t>2022-08-13 20:58:55</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>3494230</t>
+          <t>6753975</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Varta Electronics V13GS / V357 1er Bli</t>
+          <t>Severin Standgrill mit Grillplatte PG 8563</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-v13gs--v357-1er-bli/p/3494230</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/severin-standgrill-mit-grillplatte-pg-8563/p/6753975</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="n">
         <v>0</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Severin</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>4.95/1ST</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>149.00</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>Varta Electronics V13GS / V357 1er Bli 30% ab 2 Aktion 4.95 Schweizer Franken</t>
+          <t>Severin Standgrill mit Grillplatte PG 8563 149.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:43</t>
+          <t>2022-08-13 20:58:55</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>3591269</t>
+          <t>3494230</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Varta Longlife Max Power C 2er Bli</t>
+          <t>Varta Electronics V13GS / V357 1er Bli</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-max-power-c-2er-bli/p/3591269</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-v13gs--v357-1er-bli/p/3494230</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2ST</t>
-        </is>
-      </c>
-      <c r="E67" t="n">
-        <v>1</v>
-      </c>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr"/>
       <c r="F67" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -4889,12 +4887,12 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>4.48/1ST</t>
+          <t>4.95/1ST</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -4904,7 +4902,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -4919,34 +4917,34 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>Varta Longlife Max Power C 2er Bli 30% ab 2 Aktion 8.95 Schweizer Franken</t>
+          <t>Varta Electronics V13GS / V357 1er Bli 30% ab 2 Aktion 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:43</t>
+          <t>2022-08-13 20:58:55</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>4096628</t>
+          <t>4589934</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Varta Longlife Power Batterien AAA/LR03 6 Stück</t>
+          <t>Varta Longlife AA 4er Bli</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-batterien-aaalr03-6-stueck/p/4096628</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-aa-4er-bli/p/4589934</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>6ST</t>
+          <t>4ST</t>
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
@@ -4960,12 +4958,12 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>12.95</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>2.16/1ST</t>
+          <t>1.99/1ST</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -4975,7 +4973,7 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -4985,44 +4983,46 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>Varta Longlife Power Batterien AAA/LR03 6 Stück 30% ab 2 Aktion 12.95 Schweizer Franken</t>
+          <t>Varta Longlife AA 4er Bli 30% ab 2 Aktion 7.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:43</t>
+          <t>2022-08-13 20:58:55</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>4589934</t>
+          <t>3591269</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Varta Longlife AA 4er Bli</t>
+          <t>Varta Longlife Max Power C 2er Bli</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-aa-4er-bli/p/4589934</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-max-power-c-2er-bli/p/3591269</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>4ST</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr"/>
+          <t>2ST</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>1</v>
+      </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -5031,12 +5031,12 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>1.99/1ST</t>
+          <t>4.48/1ST</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -5046,7 +5046,7 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
@@ -5056,17 +5056,17 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>Varta Longlife AA 4er Bli 30% ab 2 Aktion 7.95 Schweizer Franken</t>
+          <t>Varta Longlife Max Power C 2er Bli 30% ab 2 Aktion 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:43</t>
+          <t>2022-08-13 20:58:55</t>
         </is>
       </c>
     </row>
@@ -5137,7 +5137,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:43</t>
+          <t>2022-08-13 20:58:55</t>
         </is>
       </c>
     </row>
@@ -5188,7 +5188,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:43</t>
+          <t>2022-08-13 20:58:55</t>
         </is>
       </c>
     </row>
@@ -5241,7 +5241,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:43</t>
+          <t>2022-08-13 20:58:55</t>
         </is>
       </c>
     </row>
@@ -5292,7 +5292,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:43</t>
+          <t>2022-08-13 20:58:55</t>
         </is>
       </c>
     </row>
@@ -5343,7 +5343,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:43</t>
+          <t>2022-08-13 20:58:55</t>
         </is>
       </c>
     </row>
@@ -5394,7 +5394,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:43</t>
+          <t>2022-08-13 20:58:55</t>
         </is>
       </c>
     </row>
@@ -5445,7 +5445,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:43</t>
+          <t>2022-08-13 20:58:55</t>
         </is>
       </c>
     </row>
@@ -5496,7 +5496,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:43</t>
+          <t>2022-08-13 20:58:55</t>
         </is>
       </c>
     </row>
@@ -5549,7 +5549,7 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:43</t>
+          <t>2022-08-13 20:58:55</t>
         </is>
       </c>
     </row>
@@ -5602,7 +5602,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:43</t>
+          <t>2022-08-13 20:58:55</t>
         </is>
       </c>
     </row>
@@ -5653,7 +5653,7 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:43</t>
+          <t>2022-08-13 20:58:55</t>
         </is>
       </c>
     </row>
@@ -5704,7 +5704,7 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:43</t>
+          <t>2022-08-13 20:58:55</t>
         </is>
       </c>
     </row>
@@ -5755,7 +5755,7 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:43</t>
+          <t>2022-08-13 20:58:55</t>
         </is>
       </c>
     </row>
@@ -5806,7 +5806,7 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:43</t>
+          <t>2022-08-13 20:58:55</t>
         </is>
       </c>
     </row>
@@ -5859,7 +5859,7 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:43</t>
+          <t>2022-08-13 20:58:55</t>
         </is>
       </c>
     </row>
@@ -5910,7 +5910,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:43</t>
+          <t>2022-08-13 20:58:55</t>
         </is>
       </c>
     </row>
@@ -5961,7 +5961,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:43</t>
+          <t>2022-08-13 20:58:55</t>
         </is>
       </c>
     </row>
@@ -6014,7 +6014,7 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:43</t>
+          <t>2022-08-13 20:58:55</t>
         </is>
       </c>
     </row>
@@ -6085,7 +6085,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:43</t>
+          <t>2022-08-13 20:58:55</t>
         </is>
       </c>
     </row>
@@ -6156,7 +6156,7 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:43</t>
+          <t>2022-08-13 20:58:55</t>
         </is>
       </c>
     </row>
@@ -6227,7 +6227,7 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:43</t>
+          <t>2022-08-13 20:58:55</t>
         </is>
       </c>
     </row>
@@ -6298,7 +6298,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:43</t>
+          <t>2022-08-13 20:58:55</t>
         </is>
       </c>
     </row>
@@ -6369,7 +6369,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:43</t>
+          <t>2022-08-13 20:58:55</t>
         </is>
       </c>
     </row>
